--- a/clothe/security/odoo角色配置表.xlsx
+++ b/clothe/security/odoo角色配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12480" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12480" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" state="hidden" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="salary" sheetId="7" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="30">
   <si>
     <t>●</t>
   </si>
@@ -25,7 +25,13 @@
     <t>模块名</t>
   </si>
   <si>
+    <t>clothe</t>
+  </si>
+  <si>
     <t>权限组ID</t>
+  </si>
+  <si>
+    <t>putong_manager</t>
   </si>
   <si>
     <t>描述</t>
@@ -52,89 +58,68 @@
     <t>id,name,model_id:id,group_id:id,perm_read,perm_write,perm_create,perm_unlink</t>
   </si>
   <si>
-    <t>jp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>顾客</t>
   </si>
   <si>
-    <t>●</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>trade_people</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>trade_order</t>
+  </si>
+  <si>
+    <t>trade_order_item</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>trade_stock</t>
+  </si>
+  <si>
+    <t>折扣率</t>
+  </si>
+  <si>
+    <t>trade_dis_rate</t>
+  </si>
+  <si>
+    <t>报表</t>
+  </si>
+  <si>
+    <t>trade_report</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>salary_manager</t>
+  </si>
+  <si>
+    <t>工资表</t>
   </si>
   <si>
     <t>edu_salary</t>
   </si>
   <si>
-    <t>edu_salary_model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>模板下载</t>
   </si>
   <si>
-    <t>模板下载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工资表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>salary_manager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>clothe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_people</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_order</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_order_item</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_stock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾客</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_dis_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_report</t>
-  </si>
-  <si>
-    <t>报表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>big_manager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>edu_salary_model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,22 +136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic Semilight"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.4"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -174,26 +146,367 @@
       <sz val="11.4"/>
       <color rgb="FF008000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic Semilight"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12.8"/>
       <color rgb="FFA9B7C6"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,9 +514,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -211,22 +766,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -488,372 +1090,367 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" hidden="1">
+    <row r="1" hidden="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="E491" sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="A1:J120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="34.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.7259259259259" customWidth="1"/>
+    <col min="2" max="2" width="34.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="11.4518518518519" customWidth="1"/>
+    <col min="4" max="4" width="12.4518518518519" customWidth="1"/>
+    <col min="5" max="5" width="13.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="9.9037037037037" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="8" max="8" width="28.7259259259259" customWidth="1"/>
+    <col min="9" max="9" width="15.4518518518519" customWidth="1"/>
+    <col min="10" max="10" width="24.4518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.4">
+    <row r="1" ht="23.25" spans="7:16">
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="22.8">
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" ht="23.25" spans="1:19">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="22.8">
+    <row r="3" ht="23.25" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="H3" t="str">
         <f>IF(OR(ISBLANK(B3),B3=0),"",$J$1&amp;"_access_ir_"&amp;B3&amp;","&amp;B3&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B3&amp;","&amp;$J$1&amp;","&amp;IF(D3=基础!$A$1,1,0)&amp;","&amp;IF(E3=基础!$A$1,1,0)&amp;","&amp;IF(F3=基础!$A$1,1,0)&amp;","&amp;IF(G3=基础!$A$1,1,0)&amp;"")</f>
-        <v>big_manager_access_ir_trade_people,trade_people_perm_base,clothe.model_trade_people,big_manager,1,1,1,1</v>
+        <v>putong_manager_access_ir_trade_people,trade_people_perm_base,clothe.model_trade_people,putong_manager,1,1,1,1</v>
       </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="22.8">
+    <row r="4" ht="23.25" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="H4" t="str">
         <f>IF(OR(ISBLANK(B4),B4=0),"",$J$1&amp;"_access_ir_"&amp;B4&amp;","&amp;B4&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B4&amp;","&amp;$J$1&amp;","&amp;IF(D4=基础!$A$1,1,0)&amp;","&amp;IF(E4=基础!$A$1,1,0)&amp;","&amp;IF(F4=基础!$A$1,1,0)&amp;","&amp;IF(G4=基础!$A$1,1,0)&amp;"")</f>
-        <v>big_manager_access_ir_trade_order,trade_order_perm_base,clothe.model_trade_order,big_manager,1,1,1,1</v>
+        <v>putong_manager_access_ir_trade_order,trade_order_perm_base,clothe.model_trade_order,putong_manager,1,1,1,1</v>
       </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="22.8">
+    <row r="5" ht="23.25" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="H5" t="str">
         <f>IF(OR(ISBLANK(B5),B5=0),"",$J$1&amp;"_access_ir_"&amp;B5&amp;","&amp;B5&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B5&amp;","&amp;$J$1&amp;","&amp;IF(D5=基础!$A$1,1,0)&amp;","&amp;IF(E5=基础!$A$1,1,0)&amp;","&amp;IF(F5=基础!$A$1,1,0)&amp;","&amp;IF(G5=基础!$A$1,1,0)&amp;"")</f>
-        <v>big_manager_access_ir_trade_order_item,trade_order_item_perm_base,clothe.model_trade_order_item,big_manager,1,1,1,1</v>
+        <v>putong_manager_access_ir_trade_order_item,trade_order_item_perm_base,clothe.model_trade_order_item,putong_manager,1,1,1,1</v>
       </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="22.8">
+    <row r="6" ht="23.25" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" t="str">
         <f>IF(OR(ISBLANK(B6),B6=0),"",$J$1&amp;"_access_ir_"&amp;B6&amp;","&amp;B6&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B6&amp;","&amp;$J$1&amp;","&amp;IF(D6=基础!$A$1,1,0)&amp;","&amp;IF(E6=基础!$A$1,1,0)&amp;","&amp;IF(F6=基础!$A$1,1,0)&amp;","&amp;IF(G6=基础!$A$1,1,0)&amp;"")</f>
-        <v>big_manager_access_ir_trade_stock,trade_stock_perm_base,clothe.model_trade_stock,big_manager,1,1,1,1</v>
+        <v>putong_manager_access_ir_trade_stock,trade_stock_perm_base,clothe.model_trade_stock,putong_manager,1,0,0,0</v>
       </c>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="22.8">
+    <row r="7" ht="23.25" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C7" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(B7),B7=0),"",$J$1&amp;"_access_ir_"&amp;B7&amp;","&amp;B7&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B7&amp;","&amp;$J$1&amp;","&amp;IF(D7=基础!$A$1,1,0)&amp;","&amp;IF(E7=基础!$A$1,1,0)&amp;","&amp;IF(F7=基础!$A$1,1,0)&amp;","&amp;IF(G7=基础!$A$1,1,0)&amp;"")</f>
-        <v>big_manager_access_ir_trade_dis_rate,trade_dis_rate_perm_base,clothe.model_trade_dis_rate,big_manager,1,1,1,1</v>
+        <v>putong_manager_access_ir_trade_dis_rate,trade_dis_rate_perm_base,clothe.model_trade_dis_rate,putong_manager,1,1,1,1</v>
       </c>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="22.8">
+    <row r="8" ht="23.25" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H8" t="str">
         <f>IF(OR(ISBLANK(B8),B8=0),"",$J$1&amp;"_access_ir_"&amp;B8&amp;","&amp;B8&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B8&amp;","&amp;$J$1&amp;","&amp;IF(D8=基础!$A$1,1,0)&amp;","&amp;IF(E8=基础!$A$1,1,0)&amp;","&amp;IF(F8=基础!$A$1,1,0)&amp;","&amp;IF(G8=基础!$A$1,1,0)&amp;"")</f>
-        <v>big_manager_access_ir_trade_report,trade_report_perm_base,clothe.model_trade_report,big_manager,1,1,1,1</v>
+        <v>putong_manager_access_ir_trade_report,trade_report_perm_base,clothe.model_trade_report,putong_manager,1,1,1,1</v>
       </c>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="22.8">
+    <row r="9" ht="23.25" spans="1:18">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" t="str">
         <f>IF(OR(ISBLANK(B9),B9=0),"",$J$1&amp;"_access_ir_"&amp;B9&amp;","&amp;B9&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B9&amp;","&amp;$J$1&amp;","&amp;IF(D9=基础!$A$1,1,0)&amp;","&amp;IF(E9=基础!$A$1,1,0)&amp;","&amp;IF(F9=基础!$A$1,1,0)&amp;","&amp;IF(G9=基础!$A$1,1,0)&amp;"")</f>
         <v/>
       </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="22.8">
+    <row r="10" ht="23.25" spans="1:18">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" t="str">
         <f>IF(OR(ISBLANK(B10),B10=0),"",$J$1&amp;"_access_ir_"&amp;B10&amp;","&amp;B10&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B10&amp;","&amp;$J$1&amp;","&amp;IF(D10=基础!$A$1,1,0)&amp;","&amp;IF(E10=基础!$A$1,1,0)&amp;","&amp;IF(F10=基础!$A$1,1,0)&amp;","&amp;IF(G10=基础!$A$1,1,0)&amp;"")</f>
         <v/>
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="22.8">
+    <row r="11" ht="23.25" spans="1:18">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" t="str">
         <f>IF(OR(ISBLANK(B11),B11=0),"",$J$1&amp;"_access_ir_"&amp;B11&amp;","&amp;B11&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B11&amp;","&amp;$J$1&amp;","&amp;IF(D11=基础!$A$1,1,0)&amp;","&amp;IF(E11=基础!$A$1,1,0)&amp;","&amp;IF(F11=基础!$A$1,1,0)&amp;","&amp;IF(G11=基础!$A$1,1,0)&amp;"")</f>
         <v/>
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="22.8">
+    <row r="12" ht="23.25" spans="1:18">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" t="str">
         <f>IF(OR(ISBLANK(B12),B12=0),"",$J$1&amp;"_access_ir_"&amp;B12&amp;","&amp;B12&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B12&amp;","&amp;$J$1&amp;","&amp;IF(D12=基础!$A$1,1,0)&amp;","&amp;IF(E12=基础!$A$1,1,0)&amp;","&amp;IF(F12=基础!$A$1,1,0)&amp;","&amp;IF(G12=基础!$A$1,1,0)&amp;"")</f>
         <v/>
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="22.8">
+    <row r="13" ht="23.25" spans="1:18">
       <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" t="str">
         <f>IF(OR(ISBLANK(B13),B13=0),"",$J$1&amp;"_access_ir_"&amp;B13&amp;","&amp;B13&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B13&amp;","&amp;$J$1&amp;","&amp;IF(D13=基础!$A$1,1,0)&amp;","&amp;IF(E13=基础!$A$1,1,0)&amp;","&amp;IF(F13=基础!$A$1,1,0)&amp;","&amp;IF(G13=基础!$A$1,1,0)&amp;"")</f>
         <v/>
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="22.8">
+    <row r="14" ht="23.25" spans="2:18">
       <c r="B14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -862,23 +1459,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" t="e">
         <f>IF(OR(ISBLANK(B14),B14=0),"",$J$1&amp;"_access_ir_"&amp;B14&amp;","&amp;B14&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B14&amp;","&amp;$J$1&amp;","&amp;IF(D14=基础!$A$1,1,0)&amp;","&amp;IF(E14=基础!$A$1,1,0)&amp;","&amp;IF(F14=基础!$A$1,1,0)&amp;","&amp;IF(G14=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="22.8">
+    <row r="15" ht="23.25" spans="2:18">
       <c r="B15" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -887,23 +1484,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" t="e">
         <f>IF(OR(ISBLANK(B15),B15=0),"",$J$1&amp;"_access_ir_"&amp;B15&amp;","&amp;B15&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B15&amp;","&amp;$J$1&amp;","&amp;IF(D15=基础!$A$1,1,0)&amp;","&amp;IF(E15=基础!$A$1,1,0)&amp;","&amp;IF(F15=基础!$A$1,1,0)&amp;","&amp;IF(G15=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="22.8">
+    <row r="16" ht="23.25" spans="2:18">
       <c r="B16" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -912,23 +1509,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" t="e">
         <f>IF(OR(ISBLANK(B16),B16=0),"",$J$1&amp;"_access_ir_"&amp;B16&amp;","&amp;B16&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B16&amp;","&amp;$J$1&amp;","&amp;IF(D16=基础!$A$1,1,0)&amp;","&amp;IF(E16=基础!$A$1,1,0)&amp;","&amp;IF(F16=基础!$A$1,1,0)&amp;","&amp;IF(G16=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="2:18" ht="22.8">
+    <row r="17" ht="23.25" spans="2:18">
       <c r="B17" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -937,23 +1534,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" t="e">
         <f>IF(OR(ISBLANK(B17),B17=0),"",$J$1&amp;"_access_ir_"&amp;B17&amp;","&amp;B17&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B17&amp;","&amp;$J$1&amp;","&amp;IF(D17=基础!$A$1,1,0)&amp;","&amp;IF(E17=基础!$A$1,1,0)&amp;","&amp;IF(F17=基础!$A$1,1,0)&amp;","&amp;IF(G17=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="2:18" ht="22.8">
+    <row r="18" ht="23.25" spans="2:18">
       <c r="B18" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -962,23 +1559,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" t="e">
         <f>IF(OR(ISBLANK(B18),B18=0),"",$J$1&amp;"_access_ir_"&amp;B18&amp;","&amp;B18&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B18&amp;","&amp;$J$1&amp;","&amp;IF(D18=基础!$A$1,1,0)&amp;","&amp;IF(E18=基础!$A$1,1,0)&amp;","&amp;IF(F18=基础!$A$1,1,0)&amp;","&amp;IF(G18=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="2:18" ht="22.8">
+    <row r="19" ht="23.25" spans="2:18">
       <c r="B19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -987,23 +1584,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" t="e">
         <f>IF(OR(ISBLANK(B19),B19=0),"",$J$1&amp;"_access_ir_"&amp;B19&amp;","&amp;B19&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B19&amp;","&amp;$J$1&amp;","&amp;IF(D19=基础!$A$1,1,0)&amp;","&amp;IF(E19=基础!$A$1,1,0)&amp;","&amp;IF(F19=基础!$A$1,1,0)&amp;","&amp;IF(G19=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="2:18" ht="22.8">
+    <row r="20" ht="23.25" spans="2:18">
       <c r="B20" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1012,23 +1609,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4"/>
       <c r="H20" t="e">
         <f>IF(OR(ISBLANK(B20),B20=0),"",$J$1&amp;"_access_ir_"&amp;B20&amp;","&amp;B20&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B20&amp;","&amp;$J$1&amp;","&amp;IF(D20=基础!$A$1,1,0)&amp;","&amp;IF(E20=基础!$A$1,1,0)&amp;","&amp;IF(F20=基础!$A$1,1,0)&amp;","&amp;IF(G20=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="2:18" ht="22.8">
+    <row r="21" ht="23.25" spans="2:18">
       <c r="B21" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1037,23 +1634,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" t="e">
         <f>IF(OR(ISBLANK(B21),B21=0),"",$J$1&amp;"_access_ir_"&amp;B21&amp;","&amp;B21&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B21&amp;","&amp;$J$1&amp;","&amp;IF(D21=基础!$A$1,1,0)&amp;","&amp;IF(E21=基础!$A$1,1,0)&amp;","&amp;IF(F21=基础!$A$1,1,0)&amp;","&amp;IF(G21=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="2:18" ht="22.8">
+    <row r="22" ht="23.25" spans="2:18">
       <c r="B22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1062,23 +1659,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4"/>
       <c r="H22" t="e">
         <f>IF(OR(ISBLANK(B22),B22=0),"",$J$1&amp;"_access_ir_"&amp;B22&amp;","&amp;B22&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B22&amp;","&amp;$J$1&amp;","&amp;IF(D22=基础!$A$1,1,0)&amp;","&amp;IF(E22=基础!$A$1,1,0)&amp;","&amp;IF(F22=基础!$A$1,1,0)&amp;","&amp;IF(G22=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="2:18" ht="22.8">
+    <row r="23" ht="23.25" spans="2:18">
       <c r="B23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1087,23 +1684,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" t="e">
         <f>IF(OR(ISBLANK(B23),B23=0),"",$J$1&amp;"_access_ir_"&amp;B23&amp;","&amp;B23&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B23&amp;","&amp;$J$1&amp;","&amp;IF(D23=基础!$A$1,1,0)&amp;","&amp;IF(E23=基础!$A$1,1,0)&amp;","&amp;IF(F23=基础!$A$1,1,0)&amp;","&amp;IF(G23=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="2:18" ht="22.8">
+    <row r="24" ht="23.25" spans="2:18">
       <c r="B24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1112,23 +1709,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4"/>
       <c r="H24" t="e">
         <f>IF(OR(ISBLANK(B24),B24=0),"",$J$1&amp;"_access_ir_"&amp;B24&amp;","&amp;B24&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B24&amp;","&amp;$J$1&amp;","&amp;IF(D24=基础!$A$1,1,0)&amp;","&amp;IF(E24=基础!$A$1,1,0)&amp;","&amp;IF(F24=基础!$A$1,1,0)&amp;","&amp;IF(G24=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:18" ht="22.8">
+    <row r="25" ht="23.25" spans="2:18">
       <c r="B25" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1137,23 +1734,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4"/>
       <c r="H25" t="e">
         <f>IF(OR(ISBLANK(B25),B25=0),"",$J$1&amp;"_access_ir_"&amp;B25&amp;","&amp;B25&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B25&amp;","&amp;$J$1&amp;","&amp;IF(D25=基础!$A$1,1,0)&amp;","&amp;IF(E25=基础!$A$1,1,0)&amp;","&amp;IF(F25=基础!$A$1,1,0)&amp;","&amp;IF(G25=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:8">
       <c r="B26" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1167,7 +1764,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:8">
       <c r="B27" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1181,7 +1778,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:8">
       <c r="B28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1195,7 +1792,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:8">
       <c r="B29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1209,7 +1806,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:8">
       <c r="B30" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1223,7 +1820,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:8">
       <c r="B31" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1237,7 +1834,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:8">
       <c r="B32" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1431,13 +2028,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:2">
       <c r="B47" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:2">
       <c r="B48" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1827,67 +2424,67 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:2">
       <c r="B113" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:2">
       <c r="B114" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:2">
       <c r="B115" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:2">
       <c r="B116" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:2">
       <c r="B117" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:2">
       <c r="B118" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:2">
       <c r="B119" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:2">
       <c r="B120" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="8:8">
       <c r="H126" t="str">
         <f>IF(ISBLANK(B126),"",$J$1&amp;"_access_ir_"&amp;B126&amp;","&amp;B126&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B126&amp;","&amp;$J$1&amp;","&amp;IF(D126=基础!$A$1,1,0)&amp;","&amp;IF(E126=基础!$A$1,1,0)&amp;","&amp;IF(F126=基础!$A$1,1,0)&amp;","&amp;IF(G126=基础!$A$1,1,0)&amp;"")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="8:8">
       <c r="H127" t="str">
         <f>IF(ISBLANK(B127),"",$J$1&amp;"_access_ir_"&amp;B127&amp;","&amp;B127&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B127&amp;","&amp;$J$1&amp;","&amp;IF(D127=基础!$A$1,1,0)&amp;","&amp;IF(E127=基础!$A$1,1,0)&amp;","&amp;IF(F127=基础!$A$1,1,0)&amp;","&amp;IF(G127=基础!$A$1,1,0)&amp;"")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="8:8">
       <c r="H128" t="str">
         <f>IF(ISBLANK(B128),"",$J$1&amp;"_access_ir_"&amp;B128&amp;","&amp;B128&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B128&amp;","&amp;$J$1&amp;","&amp;IF(D128=基础!$A$1,1,0)&amp;","&amp;IF(E128=基础!$A$1,1,0)&amp;","&amp;IF(F128=基础!$A$1,1,0)&amp;","&amp;IF(G128=基础!$A$1,1,0)&amp;"")</f>
         <v/>
@@ -1906,101 +2503,102 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="34.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.7259259259259" customWidth="1"/>
+    <col min="2" max="2" width="34.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="11.4518518518519" customWidth="1"/>
+    <col min="4" max="4" width="12.4518518518519" customWidth="1"/>
+    <col min="5" max="5" width="13.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="9.9037037037037" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="8" max="8" width="28.7259259259259" customWidth="1"/>
+    <col min="9" max="9" width="15.4518518518519" customWidth="1"/>
+    <col min="10" max="10" width="24.4518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.4">
+    <row r="1" ht="23.25" spans="7:16">
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" ht="23.25" spans="1:19">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="22.8">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="22.8">
+    <row r="3" ht="23.25" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="H3" t="str">
         <f>IF(OR(ISBLANK(B3),B3=0),"",$J$1&amp;"_access_ir_"&amp;B3&amp;","&amp;B3&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B3&amp;","&amp;$J$1&amp;","&amp;IF(D3=基础!$A$1,1,0)&amp;","&amp;IF(E3=基础!$A$1,1,0)&amp;","&amp;IF(F3=基础!$A$1,1,0)&amp;","&amp;IF(G3=基础!$A$1,1,0)&amp;"")</f>
@@ -2008,27 +2606,27 @@
       </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="22.8">
+    <row r="4" ht="23.25" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H4" t="str">
@@ -2037,7 +2635,7 @@
       </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="22.8">
+    <row r="5" ht="23.25" spans="2:18">
       <c r="B5" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2046,23 +2644,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" t="e">
         <f>IF(OR(ISBLANK(B5),B5=0),"",$J$1&amp;"_access_ir_"&amp;B5&amp;","&amp;B5&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B5&amp;","&amp;$J$1&amp;","&amp;IF(D5=基础!$A$1,1,0)&amp;","&amp;IF(E5=基础!$A$1,1,0)&amp;","&amp;IF(F5=基础!$A$1,1,0)&amp;","&amp;IF(G5=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="22.8">
+    <row r="6" ht="23.25" spans="2:18">
       <c r="B6" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2071,23 +2669,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" t="e">
         <f>IF(OR(ISBLANK(B6),B6=0),"",$J$1&amp;"_access_ir_"&amp;B6&amp;","&amp;B6&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B6&amp;","&amp;$J$1&amp;","&amp;IF(D6=基础!$A$1,1,0)&amp;","&amp;IF(E6=基础!$A$1,1,0)&amp;","&amp;IF(F6=基础!$A$1,1,0)&amp;","&amp;IF(G6=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="22.8">
+    <row r="7" ht="23.25" spans="2:18">
       <c r="B7" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2096,23 +2694,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" t="e">
         <f>IF(OR(ISBLANK(B7),B7=0),"",$J$1&amp;"_access_ir_"&amp;B7&amp;","&amp;B7&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B7&amp;","&amp;$J$1&amp;","&amp;IF(D7=基础!$A$1,1,0)&amp;","&amp;IF(E7=基础!$A$1,1,0)&amp;","&amp;IF(F7=基础!$A$1,1,0)&amp;","&amp;IF(G7=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="22.8">
+    <row r="8" ht="23.25" spans="2:18">
       <c r="B8" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2121,23 +2719,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" t="e">
         <f>IF(OR(ISBLANK(B8),B8=0),"",$J$1&amp;"_access_ir_"&amp;B8&amp;","&amp;B8&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B8&amp;","&amp;$J$1&amp;","&amp;IF(D8=基础!$A$1,1,0)&amp;","&amp;IF(E8=基础!$A$1,1,0)&amp;","&amp;IF(F8=基础!$A$1,1,0)&amp;","&amp;IF(G8=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="22.8">
+    <row r="9" ht="23.25" spans="2:18">
       <c r="B9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2146,23 +2744,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" t="e">
         <f>IF(OR(ISBLANK(B9),B9=0),"",$J$1&amp;"_access_ir_"&amp;B9&amp;","&amp;B9&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B9&amp;","&amp;$J$1&amp;","&amp;IF(D9=基础!$A$1,1,0)&amp;","&amp;IF(E9=基础!$A$1,1,0)&amp;","&amp;IF(F9=基础!$A$1,1,0)&amp;","&amp;IF(G9=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="22.8">
+    <row r="10" ht="23.25" spans="2:18">
       <c r="B10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2171,23 +2769,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" t="e">
         <f>IF(OR(ISBLANK(B10),B10=0),"",$J$1&amp;"_access_ir_"&amp;B10&amp;","&amp;B10&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B10&amp;","&amp;$J$1&amp;","&amp;IF(D10=基础!$A$1,1,0)&amp;","&amp;IF(E10=基础!$A$1,1,0)&amp;","&amp;IF(F10=基础!$A$1,1,0)&amp;","&amp;IF(G10=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="22.8">
+    <row r="11" ht="23.25" spans="2:18">
       <c r="B11" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2196,23 +2794,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" t="e">
         <f>IF(OR(ISBLANK(B11),B11=0),"",$J$1&amp;"_access_ir_"&amp;B11&amp;","&amp;B11&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B11&amp;","&amp;$J$1&amp;","&amp;IF(D11=基础!$A$1,1,0)&amp;","&amp;IF(E11=基础!$A$1,1,0)&amp;","&amp;IF(F11=基础!$A$1,1,0)&amp;","&amp;IF(G11=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="22.8">
+    <row r="12" ht="23.25" spans="2:18">
       <c r="B12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2221,23 +2819,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" t="e">
         <f>IF(OR(ISBLANK(B12),B12=0),"",$J$1&amp;"_access_ir_"&amp;B12&amp;","&amp;B12&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B12&amp;","&amp;$J$1&amp;","&amp;IF(D12=基础!$A$1,1,0)&amp;","&amp;IF(E12=基础!$A$1,1,0)&amp;","&amp;IF(F12=基础!$A$1,1,0)&amp;","&amp;IF(G12=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="22.8">
+    <row r="13" ht="23.25" spans="2:18">
       <c r="B13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2246,23 +2844,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" t="e">
         <f>IF(OR(ISBLANK(B13),B13=0),"",$J$1&amp;"_access_ir_"&amp;B13&amp;","&amp;B13&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B13&amp;","&amp;$J$1&amp;","&amp;IF(D13=基础!$A$1,1,0)&amp;","&amp;IF(E13=基础!$A$1,1,0)&amp;","&amp;IF(F13=基础!$A$1,1,0)&amp;","&amp;IF(G13=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="22.8">
+    <row r="14" ht="23.25" spans="2:18">
       <c r="B14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2271,23 +2869,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" t="e">
         <f>IF(OR(ISBLANK(B14),B14=0),"",$J$1&amp;"_access_ir_"&amp;B14&amp;","&amp;B14&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B14&amp;","&amp;$J$1&amp;","&amp;IF(D14=基础!$A$1,1,0)&amp;","&amp;IF(E14=基础!$A$1,1,0)&amp;","&amp;IF(F14=基础!$A$1,1,0)&amp;","&amp;IF(G14=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="22.8">
+    <row r="15" ht="23.25" spans="2:18">
       <c r="B15" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2296,23 +2894,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" t="e">
         <f>IF(OR(ISBLANK(B15),B15=0),"",$J$1&amp;"_access_ir_"&amp;B15&amp;","&amp;B15&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B15&amp;","&amp;$J$1&amp;","&amp;IF(D15=基础!$A$1,1,0)&amp;","&amp;IF(E15=基础!$A$1,1,0)&amp;","&amp;IF(F15=基础!$A$1,1,0)&amp;","&amp;IF(G15=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="22.8">
+    <row r="16" ht="23.25" spans="2:18">
       <c r="B16" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2321,16 +2919,16 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" t="e">
         <f>IF(OR(ISBLANK(B16),B16=0),"",$J$1&amp;"_access_ir_"&amp;B16&amp;","&amp;B16&amp;"_perm_base,"&amp;$H$1&amp;".model_"&amp;B16&amp;","&amp;$J$1&amp;","&amp;IF(D16=基础!$A$1,1,0)&amp;","&amp;IF(E16=基础!$A$1,1,0)&amp;","&amp;IF(F16=基础!$A$1,1,0)&amp;","&amp;IF(G16=基础!$A$1,1,0)&amp;"")</f>
         <v>#REF!</v>
@@ -2615,67 +3213,67 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:2">
       <c r="B38" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:2">
       <c r="B39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:2">
       <c r="B40" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:2">
       <c r="B41" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:2">
       <c r="B42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:2">
       <c r="B43" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:2">
       <c r="B44" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:2">
       <c r="B45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:2">
       <c r="B46" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:2">
       <c r="B47" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:2">
       <c r="B48" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -3090,21 +3688,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>